--- a/biology/Médecine/Nadey_Hakim/Nadey_Hakim.xlsx
+++ b/biology/Médecine/Nadey_Hakim/Nadey_Hakim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadey Hakim, né le 9 avril 1958, est un chirurgien libano-britannique, lauréat de la Faculté de médecine de Paris[réf. nécessaire].
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadey Hakim est un médecin, chirurgien et auteur prolifique. Il est directeur chirurgical de l'Unité de greffe de l'Hôpital Imperial College Healthcare de Londres. 
-Il a obtenu son doctorat en médecine de l'université Paris-Descartes, Faculté de médecine Cochin Port-Royal[1] et a été Lauréat de la Faculté de médecine de Paris. Sa formation chirurgicale a été faite a l'Hôpital Guy's de Londres. Il a obtenu un Ph.D. de University College London. Il a aussi complété un Fellowship en chirurgie gastro-intestinale[Quoi ?] à la clinique Mayo et un Fellowship en transplantation à l'université du Minnesota. 
+Il a obtenu son doctorat en médecine de l'université Paris-Descartes, Faculté de médecine Cochin Port-Royal et a été Lauréat de la Faculté de médecine de Paris. Sa formation chirurgicale a été faite a l'Hôpital Guy's de Londres. Il a obtenu un Ph.D. de University College London. Il a aussi complété un Fellowship en chirurgie gastro-intestinale[Quoi ?] à la clinique Mayo et un Fellowship en transplantation à l'université du Minnesota. 
 Il a publié plus de 150 articles et a écrit 23 livres dans le domaine de la chirurgie générale, de transplantation et de chirurgie bariatrique. Il a lancé avec succès[réf. nécessaire] le premier programme de greffe du pancréas dans le sud-est de l'Angleterre. 
 Il a été le rédacteur en chef de la revue chirurgicale International Surgery (2000-2011) et rédacteur en chef émérite du même journal (2011 à ce jour). Il fait partie du comité de rédaction de Transplantation Proceedings, Graft, Transplantation expérimentale et clinique. 
 Il est l'ancien président de la section de transplantation de la Royal Society of Medicine. Il a représenté la Grande-Bretagne dans l'équipe internationale qui a effectué la première greffe de bras au monde et qui a eu lieu à Lyon en 1998.
